--- a/202204.xlsx
+++ b/202204.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spp72\Desktop\python\coding\class_schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAMA\班表\寄給F的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C5BFA-04E5-47C1-B041-8666B44FA9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B231296-8069-49FA-A261-F5CE256DAF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="21">
   <si>
     <t xml:space="preserve">                                         
 </t>
@@ -1778,14 +1778,14 @@
       <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="72" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="73"/>
       <c r="E7" s="74"/>
       <c r="F7" s="75"/>
       <c r="G7" s="76"/>
-      <c r="H7" s="76" t="s">
-        <v>19</v>
-      </c>
+      <c r="H7" s="76"/>
       <c r="I7" s="77"/>
       <c r="J7" s="72"/>
       <c r="K7" s="73" t="s">
@@ -1943,12 +1943,14 @@
       <c r="S9" s="83"/>
       <c r="T9" s="82"/>
       <c r="U9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="82"/>
+      <c r="W9" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="82"/>
       <c r="Y9" s="83" t="s">
         <v>19</v>
@@ -1957,7 +1959,9 @@
         <v>18</v>
       </c>
       <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
+      <c r="AB9" s="82" t="s">
+        <v>20</v>
+      </c>
       <c r="AC9" s="82"/>
       <c r="AD9" s="82" t="s">
         <v>19</v>
@@ -1965,7 +1969,9 @@
       <c r="AE9" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="AF9" s="83"/>
+      <c r="AF9" s="83" t="s">
+        <v>20</v>
+      </c>
       <c r="AG9" s="85"/>
       <c r="AH9" s="53"/>
       <c r="AZ9" s="39"/>
@@ -1999,7 +2005,9 @@
       <c r="M10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="86"/>
+      <c r="N10" s="86" t="s">
+        <v>18</v>
+      </c>
       <c r="O10" s="86" t="s">
         <v>19</v>
       </c>
@@ -2028,9 +2036,7 @@
         <v>19</v>
       </c>
       <c r="AB10" s="86"/>
-      <c r="AC10" s="86" t="s">
-        <v>18</v>
-      </c>
+      <c r="AC10" s="86"/>
       <c r="AD10" s="86"/>
       <c r="AE10" s="86" t="s">
         <v>19</v>
